--- a/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1657</v>
+        <v>1604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14013</v>
+        <v>13522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06208312171870524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01695698442099819</v>
+        <v>0.0164120749888806</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1433737248914744</v>
+        <v>0.1383496128932082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>3851</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10780</v>
+        <v>10649</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04406867123960156</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01314899135707211</v>
+        <v>0.01310695810235479</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1233551435043181</v>
+        <v>0.121862608363529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>9919</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4425</v>
+        <v>4170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19744</v>
+        <v>19457</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05357929202732883</v>
+        <v>0.05357929202732882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02390376239939924</v>
+        <v>0.02252810299529676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1066547179048825</v>
+        <v>0.1051014867477351</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11666</v>
+        <v>11668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04331847106394469</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1334911299686347</v>
+        <v>0.1335194507424693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12193</v>
+        <v>14333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02044874479218259</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06586274485800182</v>
+        <v>0.07742192955341744</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>16051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8386</v>
+        <v>8734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27756</v>
+        <v>27382</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1642296637639605</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08580562887846988</v>
+        <v>0.08936111557637867</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2839907275643412</v>
+        <v>0.2801702768716585</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -896,19 +896,19 @@
         <v>13651</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6706</v>
+        <v>6491</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23927</v>
+        <v>24635</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1562040698723251</v>
+        <v>0.156204069872325</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07673406018920051</v>
+        <v>0.07427402574068198</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2737941657284992</v>
+        <v>0.2819045316872257</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -917,19 +917,19 @@
         <v>29701</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18077</v>
+        <v>19208</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43713</v>
+        <v>43363</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1604411338997948</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09764753324900166</v>
+        <v>0.1037558029737219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.236130444207548</v>
+        <v>0.2342365921792959</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>18300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9404</v>
+        <v>9360</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30995</v>
+        <v>30959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1872366348996281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09621649338467136</v>
+        <v>0.09577383255252431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3171285353936812</v>
+        <v>0.3167606558780179</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -967,19 +967,19 @@
         <v>24641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15434</v>
+        <v>14984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36494</v>
+        <v>36854</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2819667657902163</v>
+        <v>0.2819667657902162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1766174761844813</v>
+        <v>0.1714656991783453</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4176033840085018</v>
+        <v>0.4217206772583168</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -988,19 +988,19 @@
         <v>42940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29482</v>
+        <v>29170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60012</v>
+        <v>60677</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2319545629135742</v>
+        <v>0.2319545629135743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1592563573586477</v>
+        <v>0.1575715481050114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3241712283811601</v>
+        <v>0.3277647820117762</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>57317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42911</v>
+        <v>43428</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70048</v>
+        <v>70658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5864505796177062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.439051320669417</v>
+        <v>0.444342873899873</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7167143827205171</v>
+        <v>0.7229598703763102</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1038,19 +1038,19 @@
         <v>41461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29964</v>
+        <v>29840</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53055</v>
+        <v>53592</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4744420220339124</v>
+        <v>0.4744420220339123</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3428836684908253</v>
+        <v>0.3414646229192047</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6071136450499233</v>
+        <v>0.6132571318862901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1059,19 +1059,19 @@
         <v>98777</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79669</v>
+        <v>78542</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118831</v>
+        <v>116716</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5335762663671195</v>
+        <v>0.5335762663671194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4303568784943761</v>
+        <v>0.4242690462297248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6419005440907493</v>
+        <v>0.6304768569205592</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10317</v>
+        <v>10403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01361522004411255</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04760519837886608</v>
+        <v>0.04800317852890286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1184,19 +1184,19 @@
         <v>2871</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7957</v>
+        <v>7766</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01270697205705856</v>
+        <v>0.01270697205705857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003758323942948108</v>
+        <v>0.003796646075817863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03521409435841547</v>
+        <v>0.03437057568996074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1205,19 +1205,19 @@
         <v>5822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1979</v>
+        <v>2046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13148</v>
+        <v>13426</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01315162700961331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00447145497023414</v>
+        <v>0.004622183850708093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02969979442657304</v>
+        <v>0.03032864800004391</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6249</v>
+        <v>6966</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006049166148664591</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02883562801283318</v>
+        <v>0.03214013771370688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5300</v>
+        <v>5723</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.004493600488225555</v>
+        <v>0.004493600488225556</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02345748512637848</v>
+        <v>0.02532672514504383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1279,16 +1279,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7795</v>
+        <v>7587</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.005255165594669558</v>
+        <v>0.005255165594669557</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01760827615421568</v>
+        <v>0.01713885329838691</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>15714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8110</v>
+        <v>8248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27619</v>
+        <v>29009</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07250821323668422</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03741890410486999</v>
+        <v>0.03805521493611147</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1274367104938069</v>
+        <v>0.1338506219835157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1326,19 +1326,19 @@
         <v>7966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3348</v>
+        <v>3761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14377</v>
+        <v>14485</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03525631480515684</v>
+        <v>0.03525631480515685</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01481601742678656</v>
+        <v>0.01664685137171257</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06362608640044029</v>
+        <v>0.06410415728803356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1347,19 +1347,19 @@
         <v>23681</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15168</v>
+        <v>14573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37578</v>
+        <v>36559</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05349389018737525</v>
+        <v>0.05349389018737524</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03426412650778068</v>
+        <v>0.03291880822247194</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08488722913305069</v>
+        <v>0.08258467555862997</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>50523</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36065</v>
+        <v>36531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67764</v>
+        <v>68282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2331218835148386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1664087787131841</v>
+        <v>0.1685572474971778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3126747605205</v>
+        <v>0.3150612054754782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1397,19 +1397,19 @@
         <v>66862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54744</v>
+        <v>52448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83346</v>
+        <v>81478</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2959090307729875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2422775684573442</v>
+        <v>0.232115317459057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3688575751850865</v>
+        <v>0.3605937575651418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1418,19 +1418,19 @@
         <v>117386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96708</v>
+        <v>97612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139741</v>
+        <v>142769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2651700515700963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2184603744531444</v>
+        <v>0.2205017238803008</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3156691494832487</v>
+        <v>0.3225108547611981</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>146226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128065</v>
+        <v>125591</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163406</v>
+        <v>163746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6747055170556999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5909106536664722</v>
+        <v>0.5794929697426788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.753980794239495</v>
+        <v>0.755546856386026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -1468,19 +1468,19 @@
         <v>147241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132653</v>
+        <v>132031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>160901</v>
+        <v>161633</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6516340818765712</v>
+        <v>0.6516340818765716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5870725778062948</v>
+        <v>0.5843197405216071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7120893249906608</v>
+        <v>0.71533119378038</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>225</v>
@@ -1489,19 +1489,19 @@
         <v>293466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>271082</v>
+        <v>269213</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>316607</v>
+        <v>317822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6629292656382456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6123646511499196</v>
+        <v>0.6081414194438888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7152045549312861</v>
+        <v>0.7179482781171147</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>4763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1754</v>
+        <v>1665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10358</v>
+        <v>10341</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01426860780726288</v>
+        <v>0.01426860780726287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005253199953736907</v>
+        <v>0.004987206389266297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03102865487902751</v>
+        <v>0.03097883573854041</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1614,19 +1614,19 @@
         <v>2327</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6429</v>
+        <v>6723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007295457314800761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001880795409777508</v>
+        <v>0.001884097132229604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02015324634100069</v>
+        <v>0.0210731743233042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1635,19 +1635,19 @@
         <v>7090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3091</v>
+        <v>3160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13427</v>
+        <v>13928</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01086104174693089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004734659462893673</v>
+        <v>0.004840222422270582</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0205680839626468</v>
+        <v>0.02133561821038462</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>3096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7874</v>
+        <v>8133</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009275922397313157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002349839895372593</v>
+        <v>0.002346747813453495</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02358800893813424</v>
+        <v>0.02436449417829654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1685,19 +1685,19 @@
         <v>4387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1659</v>
+        <v>1529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9679</v>
+        <v>8513</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01375275601981192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005199952713987162</v>
+        <v>0.004791673214600231</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03033998363774403</v>
+        <v>0.02668487449990789</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1706,19 +1706,19 @@
         <v>7484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3930</v>
+        <v>3583</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13459</v>
+        <v>13063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.011463614506679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006020500538430017</v>
+        <v>0.00548909724712647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02061648751995862</v>
+        <v>0.02000966952057423</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>18049</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10610</v>
+        <v>10625</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26484</v>
+        <v>26922</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05407050334690785</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03178586414784692</v>
+        <v>0.03182986327647051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07934059117687342</v>
+        <v>0.08065091857425477</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1756,19 +1756,19 @@
         <v>11321</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6558</v>
+        <v>6312</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17748</v>
+        <v>17988</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.03548682275456297</v>
+        <v>0.03548682275456296</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02055661842061592</v>
+        <v>0.01978523155307783</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05563455010756974</v>
+        <v>0.05638614059272658</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -1777,19 +1777,19 @@
         <v>29370</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19833</v>
+        <v>21126</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39806</v>
+        <v>40743</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04498922518849462</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03038086154582669</v>
+        <v>0.03236166658406578</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06097575395610319</v>
+        <v>0.06241087802842454</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>124604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>106315</v>
+        <v>107111</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144463</v>
+        <v>145189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3732834661146667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3184940923705943</v>
+        <v>0.3208786285135677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4327768062297243</v>
+        <v>0.434952791454925</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1827,19 +1827,19 @@
         <v>120983</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>107838</v>
+        <v>107370</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135990</v>
+        <v>136432</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.379243963913256</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3380388078702452</v>
+        <v>0.3365710489823768</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4262856795399839</v>
+        <v>0.4276718527675085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>289</v>
@@ -1848,19 +1848,19 @@
         <v>245587</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219963</v>
+        <v>224720</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>267796</v>
+        <v>268227</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3761961796755045</v>
+        <v>0.3761961796755044</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3369451124757662</v>
+        <v>0.3442318355291145</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4102169104452455</v>
+        <v>0.4108763179313579</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>183293</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>165443</v>
+        <v>161869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>201442</v>
+        <v>200728</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5491015003338493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4956268219467971</v>
+        <v>0.4849205224493337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6034728243537637</v>
+        <v>0.6013331865374102</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -1898,19 +1898,19 @@
         <v>179993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>163222</v>
+        <v>165194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192682</v>
+        <v>195313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5642209999975684</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5116513483905173</v>
+        <v>0.517830964016412</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6039995356137433</v>
+        <v>0.6122467675872353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>405</v>
@@ -1919,19 +1919,19 @@
         <v>363286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>340182</v>
+        <v>339523</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>388650</v>
+        <v>387996</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5564899388823912</v>
+        <v>0.556489938882391</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5210998957106887</v>
+        <v>0.5200905541159548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5953444679950636</v>
+        <v>0.5943424670979097</v>
       </c>
     </row>
     <row r="21">
@@ -2023,19 +2023,19 @@
         <v>8178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4041</v>
+        <v>4169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14327</v>
+        <v>14672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02453724948225919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01212455101675589</v>
+        <v>0.01250947657140177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04298946929475027</v>
+        <v>0.04402297545756932</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2044,19 +2044,19 @@
         <v>12295</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7143</v>
+        <v>7549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19020</v>
+        <v>18436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03184646214087358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01850176201778449</v>
+        <v>0.01955267901589587</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04926356182231621</v>
+        <v>0.04775205713947404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -2065,19 +2065,19 @@
         <v>20473</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13690</v>
+        <v>13954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28872</v>
+        <v>29376</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0284601338925393</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01903078559648479</v>
+        <v>0.01939788440743074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04013534299855361</v>
+        <v>0.04083673011612605</v>
       </c>
     </row>
     <row r="23">
@@ -2094,19 +2094,19 @@
         <v>8953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4338</v>
+        <v>3900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16255</v>
+        <v>16090</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0268637259062436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01301485052264282</v>
+        <v>0.01170068229110345</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04877215561104298</v>
+        <v>0.04827779942141074</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2115,19 +2115,19 @@
         <v>12050</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6982</v>
+        <v>6996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18716</v>
+        <v>18307</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0312119046160481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01808438539768688</v>
+        <v>0.01812110532903683</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0484771377532823</v>
+        <v>0.04741772789553198</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2136,19 +2136,19 @@
         <v>21004</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14300</v>
+        <v>13934</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30406</v>
+        <v>30234</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02919741125246221</v>
+        <v>0.0291974112524622</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01987913162752089</v>
+        <v>0.01937015843422562</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04226744922543925</v>
+        <v>0.04202814268153508</v>
       </c>
     </row>
     <row r="24">
@@ -2165,19 +2165,19 @@
         <v>22238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14396</v>
+        <v>14769</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32104</v>
+        <v>32372</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0667236095733397</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0431942432141321</v>
+        <v>0.04431539561054707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09632728561131826</v>
+        <v>0.09713099597550696</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -2186,19 +2186,19 @@
         <v>32423</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24789</v>
+        <v>24277</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41924</v>
+        <v>42500</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08397749124227306</v>
+        <v>0.08397749124227305</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06420710202517878</v>
+        <v>0.06287985849045738</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1085870502714881</v>
+        <v>0.1100794542610481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>71</v>
@@ -2207,19 +2207,19 @@
         <v>54660</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42110</v>
+        <v>42928</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68450</v>
+        <v>68339</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07598383862634245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05853731065216495</v>
+        <v>0.05967440759679793</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09515284665896134</v>
+        <v>0.09499948232770845</v>
       </c>
     </row>
     <row r="25">
@@ -2236,19 +2236,19 @@
         <v>119558</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102306</v>
+        <v>102469</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137005</v>
+        <v>138143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3587336593774527</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3069680980483109</v>
+        <v>0.3074582500413195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4110825126303271</v>
+        <v>0.4144979190880551</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>228</v>
@@ -2257,19 +2257,19 @@
         <v>141972</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>126677</v>
+        <v>128018</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156977</v>
+        <v>157805</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3677199888044876</v>
+        <v>0.3677199888044875</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3281043741719285</v>
+        <v>0.3315778375350471</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4065858282819999</v>
+        <v>0.4087311465304003</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>345</v>
@@ -2278,19 +2278,19 @@
         <v>261530</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238977</v>
+        <v>237227</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>285694</v>
+        <v>284644</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.363556659235503</v>
+        <v>0.3635566592355029</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3322056948551411</v>
+        <v>0.3297728660091304</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3971481438460675</v>
+        <v>0.395688082873871</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>174352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>155964</v>
+        <v>156146</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193188</v>
+        <v>192108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5231417556607049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4679692892244607</v>
+        <v>0.4685140644847972</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.579657715487801</v>
+        <v>0.5764174929685718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>297</v>
@@ -2328,19 +2328,19 @@
         <v>187346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>172610</v>
+        <v>170649</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>203184</v>
+        <v>201886</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4852441531963176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4470758644505229</v>
+        <v>0.441996625262997</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5262650584327375</v>
+        <v>0.5229030501587851</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>469</v>
@@ -2349,19 +2349,19 @@
         <v>361698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>336102</v>
+        <v>337862</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>385439</v>
+        <v>388136</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5028019569931531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.467220361454846</v>
+        <v>0.469667193969239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5358057186114342</v>
+        <v>0.539553726581204</v>
       </c>
     </row>
     <row r="27">
@@ -2453,19 +2453,19 @@
         <v>32587</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22371</v>
+        <v>23494</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43231</v>
+        <v>44393</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09551622598827969</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0655708591205813</v>
+        <v>0.06886232253582358</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1267151966853419</v>
+        <v>0.1301190747006083</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2474,19 +2474,19 @@
         <v>35023</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27177</v>
+        <v>26677</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43780</v>
+        <v>44322</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1105313267681242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08576964118824994</v>
+        <v>0.08419070538214676</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1381697383920831</v>
+        <v>0.1398778271313608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>95</v>
@@ -2495,19 +2495,19 @@
         <v>67610</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>54017</v>
+        <v>55562</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>81507</v>
+        <v>82715</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1027464070788402</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08208916522863793</v>
+        <v>0.08443718851630627</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1238649580233994</v>
+        <v>0.1257006754303829</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>18825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12196</v>
+        <v>11810</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27779</v>
+        <v>27531</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05517671554400082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03574659991596928</v>
+        <v>0.03461706958998407</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08142247781181793</v>
+        <v>0.08069621443680786</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2545,19 +2545,19 @@
         <v>20867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14209</v>
+        <v>14882</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28972</v>
+        <v>29035</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06585606768250699</v>
+        <v>0.06585606768250697</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04484212060442707</v>
+        <v>0.04696742937875887</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09143565456617635</v>
+        <v>0.09163375037088237</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>54</v>
@@ -2566,19 +2566,19 @@
         <v>39692</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30422</v>
+        <v>30261</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>52425</v>
+        <v>51746</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06031911525369252</v>
+        <v>0.06031911525369251</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04623194707704414</v>
+        <v>0.04598695239319139</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07967034442795952</v>
+        <v>0.07863808280664634</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>44673</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33637</v>
+        <v>34766</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57393</v>
+        <v>58585</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1309403233604475</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09859443525499459</v>
+        <v>0.1019008500685025</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1682249223905962</v>
+        <v>0.1717190097311949</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>77</v>
@@ -2616,19 +2616,19 @@
         <v>48359</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38310</v>
+        <v>38930</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>58556</v>
+        <v>58720</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1526197508778535</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1209045415817056</v>
+        <v>0.1228622868293398</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1848026082209248</v>
+        <v>0.1853189043377379</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>128</v>
@@ -2637,19 +2637,19 @@
         <v>93032</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>78593</v>
+        <v>77859</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>110435</v>
+        <v>108947</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.141379559779089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1194375716246115</v>
+        <v>0.1183219565557591</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1678266107982906</v>
+        <v>0.1655652146677562</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>117097</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>101419</v>
+        <v>99481</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>133702</v>
+        <v>133878</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.343222426111594</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2972689208002331</v>
+        <v>0.291587410431066</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3918911637847839</v>
+        <v>0.3924085856765256</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>167</v>
@@ -2690,16 +2690,16 @@
         <v>85018</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110178</v>
+        <v>109672</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3047304327950265</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2683134343569279</v>
+        <v>0.2683148437319988</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.347718140516652</v>
+        <v>0.3461217673180535</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>298</v>
@@ -2708,19 +2708,19 @@
         <v>213654</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>193158</v>
+        <v>194895</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>235450</v>
+        <v>234595</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3246874801065023</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2935405361048525</v>
+        <v>0.2961796803917549</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3578114275653017</v>
+        <v>0.3565110655874612</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>127988</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>113391</v>
+        <v>111242</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>144981</v>
+        <v>145345</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.375144308995678</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3323577861901471</v>
+        <v>0.326061541255981</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4249519714558826</v>
+        <v>0.4260192750976829</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>198</v>
@@ -2758,19 +2758,19 @@
         <v>116054</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>102322</v>
+        <v>103820</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>128980</v>
+        <v>130637</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3662624218764889</v>
+        <v>0.3662624218764888</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3229254032876449</v>
+        <v>0.3276534774159637</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.407058152670938</v>
+        <v>0.412286964287443</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>337</v>
@@ -2779,19 +2779,19 @@
         <v>244042</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>222048</v>
+        <v>222362</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>266513</v>
+        <v>265947</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3708674377818759</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3374445745780653</v>
+        <v>0.3379219508189733</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4050166466951137</v>
+        <v>0.4041571670452808</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>30458</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22855</v>
+        <v>22387</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39258</v>
+        <v>38994</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1403802720113872</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1053405068605538</v>
+        <v>0.1031828543016113</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1809419202199866</v>
+        <v>0.1797236144092716</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>62</v>
@@ -2904,19 +2904,19 @@
         <v>33082</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>26074</v>
+        <v>26214</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>41434</v>
+        <v>40635</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2009332981229618</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1583676500566297</v>
+        <v>0.1592155651822033</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2516621625705337</v>
+        <v>0.2468066876875247</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>108</v>
@@ -2925,19 +2925,19 @@
         <v>63540</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>52847</v>
+        <v>52281</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>74952</v>
+        <v>75473</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1665054106544605</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1384833273865087</v>
+        <v>0.1370010069766699</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1964090428075811</v>
+        <v>0.1977749979704996</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>24418</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17658</v>
+        <v>17531</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32928</v>
+        <v>34121</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1125427924281712</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08138395785366304</v>
+        <v>0.08080159516472499</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.151767281553123</v>
+        <v>0.1572657139436381</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -2975,19 +2975,19 @@
         <v>17243</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12110</v>
+        <v>11923</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24105</v>
+        <v>23853</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1047267812190849</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07355395370554427</v>
+        <v>0.07241824235410262</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1464048470738052</v>
+        <v>0.144876928881581</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>64</v>
@@ -2996,19 +2996,19 @@
         <v>41661</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>32322</v>
+        <v>33667</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>52204</v>
+        <v>52002</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1091706343448254</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08469983613232585</v>
+        <v>0.08822383401675987</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1367994853794627</v>
+        <v>0.1362704694089118</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>27851</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20467</v>
+        <v>19740</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>36388</v>
+        <v>35575</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.128364327232255</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09433252264110033</v>
+        <v>0.09098087755873338</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1677115658238287</v>
+        <v>0.1639631428513123</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>65</v>
@@ -3046,19 +3046,19 @@
         <v>32344</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>25660</v>
+        <v>25926</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>39996</v>
+        <v>39884</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1964483779444124</v>
+        <v>0.1964483779444125</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1558528399301492</v>
+        <v>0.1574695570938582</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2429228326345041</v>
+        <v>0.2422458691573403</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>107</v>
@@ -3067,19 +3067,19 @@
         <v>60195</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>49090</v>
+        <v>50192</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>71396</v>
+        <v>71721</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1577386686724287</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1286393415118186</v>
+        <v>0.131525706092234</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.187091225318917</v>
+        <v>0.1879440304938147</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>64105</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>53862</v>
+        <v>53202</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75917</v>
+        <v>76697</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2954608241562767</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2482491805423248</v>
+        <v>0.245209413899378</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.349902907077296</v>
+        <v>0.3534954414008797</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -3117,19 +3117,19 @@
         <v>36147</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28614</v>
+        <v>29377</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>44221</v>
+        <v>45048</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2195463275759984</v>
+        <v>0.2195463275759985</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1737929560101808</v>
+        <v>0.1784289263673264</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2685859703470456</v>
+        <v>0.2736074424263246</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>157</v>
@@ -3138,19 +3138,19 @@
         <v>100252</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>87045</v>
+        <v>87307</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>115116</v>
+        <v>115052</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2627080969098381</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.228099161928153</v>
+        <v>0.2287853938420008</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3016593676553168</v>
+        <v>0.3014915703691624</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>70135</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>58906</v>
+        <v>58759</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>81774</v>
+        <v>81728</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3232517841719099</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2714954050021833</v>
+        <v>0.2708209212880396</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3768942222681874</v>
+        <v>0.3766849260675904</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>92</v>
@@ -3188,19 +3188,19 @@
         <v>45828</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>37822</v>
+        <v>37941</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>53581</v>
+        <v>54699</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2783452151375423</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2297241323703381</v>
+        <v>0.2304455592596517</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3254370014493119</v>
+        <v>0.3322293800548036</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>193</v>
@@ -3209,19 +3209,19 @@
         <v>115963</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>101833</v>
+        <v>101711</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>130095</v>
+        <v>130833</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3038771894184473</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2668504599079247</v>
+        <v>0.2665307894172008</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3409108098334693</v>
+        <v>0.3428449048415975</v>
       </c>
     </row>
     <row r="39">
@@ -3313,19 +3313,19 @@
         <v>29082</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>22742</v>
+        <v>22757</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>36617</v>
+        <v>37112</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.2438570561668612</v>
+        <v>0.2438570561668611</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1906916731286953</v>
+        <v>0.1908242094553493</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3070423980106862</v>
+        <v>0.3111942342893715</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>89</v>
@@ -3334,19 +3334,19 @@
         <v>44445</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37660</v>
+        <v>37250</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>52706</v>
+        <v>51960</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3765421270613069</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3190576398276406</v>
+        <v>0.315586723039537</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4465331671144747</v>
+        <v>0.4402128547795929</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>140</v>
@@ -3355,19 +3355,19 @@
         <v>73527</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>62977</v>
+        <v>62712</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>84551</v>
+        <v>84515</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3098576165944711</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2653967563119203</v>
+        <v>0.2642827554699126</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3563179386383702</v>
+        <v>0.3561631508196666</v>
       </c>
     </row>
     <row r="41">
@@ -3384,19 +3384,19 @@
         <v>15736</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10536</v>
+        <v>10172</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22816</v>
+        <v>21867</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1319506605527325</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0883496277476684</v>
+        <v>0.08529323215336862</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.191315734973397</v>
+        <v>0.1833588835792233</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>13</v>
@@ -3405,19 +3405,19 @@
         <v>7396</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3816</v>
+        <v>4217</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11914</v>
+        <v>12574</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06265571449614094</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03233259146727566</v>
+        <v>0.03572711832729963</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1009398064752932</v>
+        <v>0.1065260241943562</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3426,19 +3426,19 @@
         <v>23132</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16906</v>
+        <v>16867</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>31598</v>
+        <v>31484</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09748178441086139</v>
+        <v>0.09748178441086137</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07124537570637886</v>
+        <v>0.071082634692261</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1331601555444303</v>
+        <v>0.1326806712171128</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>23696</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17444</v>
+        <v>17386</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31222</v>
+        <v>31184</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1986943715508546</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1462723740621725</v>
+        <v>0.1457849853861491</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2618049623382724</v>
+        <v>0.2614800620937745</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>72</v>
@@ -3476,19 +3476,19 @@
         <v>34855</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>28127</v>
+        <v>27660</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>42705</v>
+        <v>42326</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2952922009545748</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2382919771622034</v>
+        <v>0.2343415636878651</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3618017318248856</v>
+        <v>0.3585916069095993</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>112</v>
@@ -3497,19 +3497,19 @@
         <v>58550</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>50063</v>
+        <v>49072</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>68872</v>
+        <v>68700</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2467443204543606</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2109760474342465</v>
+        <v>0.2068019248702231</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.290241779570391</v>
+        <v>0.289518363999149</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>29839</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>22423</v>
+        <v>22463</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>38587</v>
+        <v>38485</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2502080970451142</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.18802029056512</v>
+        <v>0.1883539122651702</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3235623377188676</v>
+        <v>0.3227062510768953</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -3547,19 +3547,19 @@
         <v>15619</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>10988</v>
+        <v>10518</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>22002</v>
+        <v>21053</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1323263739335508</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09308955194367574</v>
+        <v>0.08910833614212429</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1864017117842067</v>
+        <v>0.1783598146788801</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>72</v>
@@ -3568,19 +3568,19 @@
         <v>45458</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>36473</v>
+        <v>36414</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>55676</v>
+        <v>56660</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1915710571951305</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1537050107703839</v>
+        <v>0.1534553739322946</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2346320021893386</v>
+        <v>0.238778386866657</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>20905</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>14568</v>
+        <v>14010</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28900</v>
+        <v>27678</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1752898146844376</v>
+        <v>0.1752898146844375</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1221557811598999</v>
+        <v>0.1174804142654565</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2423356290397747</v>
+        <v>0.2320891297913751</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>32</v>
@@ -3618,19 +3618,19 @@
         <v>15720</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11012</v>
+        <v>10999</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>21221</v>
+        <v>21898</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1331835835544265</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09329509537282883</v>
+        <v>0.09318247837622931</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1797874188218458</v>
+        <v>0.1855188767589916</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>65</v>
@@ -3639,19 +3639,19 @@
         <v>36625</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28618</v>
+        <v>29140</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>45903</v>
+        <v>45806</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1543452213451764</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.120601192796165</v>
+        <v>0.1228032309321387</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1934470559643833</v>
+        <v>0.1930368436529279</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>114086</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>95647</v>
+        <v>96907</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>133313</v>
+        <v>134481</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.06877056185073792</v>
+        <v>0.06877056185073793</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0576554204856105</v>
+        <v>0.05841489634642432</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08036052965011468</v>
+        <v>0.08106477020703683</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>234</v>
@@ -3764,19 +3764,19 @@
         <v>133895</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>119605</v>
+        <v>117186</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>150992</v>
+        <v>153167</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08275460574614196</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07392227644251288</v>
+        <v>0.07242725941171455</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09332150115212801</v>
+        <v>0.0946658402003247</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>392</v>
@@ -3785,19 +3785,19 @@
         <v>247981</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>220980</v>
+        <v>222214</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>274725</v>
+        <v>272566</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07567518483110591</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06743539794269676</v>
+        <v>0.06781180401680927</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08383652474291389</v>
+        <v>0.08317758425497851</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>72339</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>58577</v>
+        <v>58165</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>86936</v>
+        <v>87403</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.04360579901323593</v>
+        <v>0.04360579901323594</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03530992074674808</v>
+        <v>0.03506157968001502</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05240468714992618</v>
+        <v>0.05268602663293407</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>100</v>
@@ -3835,19 +3835,19 @@
         <v>66744</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>54539</v>
+        <v>54947</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>80979</v>
+        <v>82129</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04125135670349685</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03370840347377271</v>
+        <v>0.03396054872029029</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05004963389908781</v>
+        <v>0.05076020382986514</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>195</v>
@@ -3856,19 +3856,19 @@
         <v>139083</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>120989</v>
+        <v>119175</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>160162</v>
+        <v>158739</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.04244329290274539</v>
+        <v>0.0424432929027454</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.0369214849857991</v>
+        <v>0.03636798174652227</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04887586836710284</v>
+        <v>0.04844158204006859</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>168271</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>145496</v>
+        <v>147253</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>194902</v>
+        <v>192192</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.101433206244976</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.08770458712688586</v>
+        <v>0.08876363237903834</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1174858772782135</v>
+        <v>0.1158525905344142</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>295</v>
@@ -3906,19 +3906,19 @@
         <v>180917</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>162295</v>
+        <v>160140</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>201646</v>
+        <v>203104</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.1118170044073547</v>
+        <v>0.1118170044073548</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1003075146718077</v>
+        <v>0.09897512899653139</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1246285655573282</v>
+        <v>0.1255295907832243</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>490</v>
@@ -3927,19 +3927,19 @@
         <v>349189</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>315772</v>
+        <v>315943</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>382614</v>
+        <v>379618</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1065602075581675</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.09636264185361693</v>
+        <v>0.09641472313012139</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.116760457455084</v>
+        <v>0.1158460069196958</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>524027</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>484869</v>
+        <v>487511</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>561871</v>
+        <v>565764</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.3158807834169646</v>
+        <v>0.3158807834169647</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2922768982593275</v>
+        <v>0.2938692826605601</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3386933494637529</v>
+        <v>0.3410401296333979</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>751</v>
@@ -3977,19 +3977,19 @@
         <v>502780</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>468863</v>
+        <v>472489</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>532595</v>
+        <v>534272</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3107459315123862</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2897835698038139</v>
+        <v>0.2920245064172858</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3291731769609016</v>
+        <v>0.3302096251859776</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1284</v>
@@ -3998,19 +3998,19 @@
         <v>1026807</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>974077</v>
+        <v>979539</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1077396</v>
+        <v>1081418</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.3133454498091525</v>
+        <v>0.3133454498091524</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2972543218864419</v>
+        <v>0.2989211446854489</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3287834266717107</v>
+        <v>0.3300108241239766</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>780215</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>734347</v>
+        <v>738076</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>823340</v>
+        <v>825683</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.4703096494740854</v>
+        <v>0.4703096494740855</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4426610193983254</v>
+        <v>0.4449088271777498</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4963053417138547</v>
+        <v>0.4977178913622053</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1024</v>
@@ -4048,19 +4048,19 @@
         <v>733642</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>699959</v>
+        <v>698195</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>770708</v>
+        <v>768231</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.4534311016306201</v>
+        <v>0.4534311016306202</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4326133186900145</v>
+        <v>0.4315228660260608</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4763403541029118</v>
+        <v>0.4748090021718042</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1742</v>
@@ -4069,19 +4069,19 @@
         <v>1513856</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1460864</v>
+        <v>1455957</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1578531</v>
+        <v>1566555</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4619758648988288</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4458044299008347</v>
+        <v>0.4443069735938577</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4817122816467032</v>
+        <v>0.4780577802937808</v>
       </c>
     </row>
     <row r="51">
